--- a/biology/Botanique/Calliandra_slaneae/Calliandra_slaneae.xlsx
+++ b/biology/Botanique/Calliandra_slaneae/Calliandra_slaneae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Calliandra slaneae est une espèce de plante de la famille des Mimosaceae selon la classification classique ou de celle des Fabaceae selon la classification phylogénétique.
 On trouve notamment cette espèce dans les Antilles.
